--- a/order filter.xlsx
+++ b/order filter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Masterdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steven.nathanael\Documents\Python\Data\2. Master Data Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04149E1-6785-41FB-A911-F774938FD153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA357C3-4169-4D98-9595-945E3BA185BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{5777101B-9BF8-469D-9237-73D9B6C17DB8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5777101B-9BF8-469D-9237-73D9B6C17DB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>order filter</t>
   </si>
@@ -229,6 +229,15 @@
   </si>
   <si>
     <t>Completed</t>
+  </si>
+  <si>
+    <t>Pesanan Tiba</t>
+  </si>
+  <si>
+    <t>Selesai</t>
+  </si>
+  <si>
+    <t>Pesanan Baru</t>
   </si>
 </sst>
 </file>
@@ -236,7 +245,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -272,7 +281,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -589,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E4FCD0C-0371-4C97-A59B-B99878C8BA3C}">
-  <dimension ref="A1:A65"/>
+  <dimension ref="A1:A68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -925,6 +934,21 @@
         <v>64</v>
       </c>
     </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
